--- a/Score Classificatori.xlsx
+++ b/Score Classificatori.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\eeg_emotion_recognition\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eegFVAB\eeg_emotion_recognition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{693D35F3-5942-480D-840A-C1C77CE4BA1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{166AA9C3-C2EA-4BC6-98C4-EF01BBE589B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="21">
   <si>
     <t>Dataset</t>
   </si>
@@ -320,6 +320,222 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -332,223 +548,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -834,7 +834,7 @@
   <dimension ref="B1:L32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="B9" sqref="B9:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -843,29 +843,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
     </row>
     <row r="2" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="4" t="s">
+      <c r="C2" s="75"/>
+      <c r="D2" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="6" t="s">
+      <c r="E2" s="77"/>
+      <c r="F2" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="8" t="s">
+      <c r="G2" s="65"/>
+      <c r="H2" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="9"/>
+      <c r="I2" s="63"/>
       <c r="J2" s="1" t="s">
         <v>5</v>
       </c>
@@ -877,671 +877,759 @@
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="24" t="s">
+      <c r="C3" s="67"/>
+      <c r="D3" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="25"/>
-      <c r="F3" s="26">
+      <c r="E3" s="67"/>
+      <c r="F3" s="59">
         <v>0.20882999999999999</v>
       </c>
-      <c r="G3" s="26"/>
-      <c r="H3" s="27" t="s">
+      <c r="G3" s="59"/>
+      <c r="H3" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="28"/>
-      <c r="J3" s="29">
+      <c r="I3" s="61"/>
+      <c r="J3" s="5">
         <v>10</v>
       </c>
-      <c r="K3" s="30">
+      <c r="K3" s="6">
         <v>0.5</v>
       </c>
-      <c r="L3" s="31">
+      <c r="L3" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B4" s="32"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="26">
+      <c r="B4" s="68"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="59">
         <v>0.28399999999999997</v>
       </c>
-      <c r="G4" s="26"/>
-      <c r="H4" s="27" t="s">
+      <c r="G4" s="59"/>
+      <c r="H4" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="28"/>
-      <c r="J4" s="29">
+      <c r="I4" s="61"/>
+      <c r="J4" s="5">
         <v>10</v>
       </c>
-      <c r="K4" s="30">
+      <c r="K4" s="6">
         <v>1</v>
       </c>
-      <c r="L4" s="31">
+      <c r="L4" s="7">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="32"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="26" t="s">
+      <c r="B5" s="68"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="26"/>
-      <c r="H5" s="27" t="s">
+      <c r="G5" s="59"/>
+      <c r="H5" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="28"/>
-      <c r="J5" s="36" t="s">
+      <c r="I5" s="61"/>
+      <c r="J5" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="K5" s="30">
+      <c r="K5" s="6">
         <v>0.2</v>
       </c>
-      <c r="L5" s="31">
+      <c r="L5" s="7">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="32"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="24" t="s">
+      <c r="B6" s="68"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="25"/>
-      <c r="F6" s="26">
+      <c r="E6" s="67"/>
+      <c r="F6" s="59">
         <v>0.2472</v>
       </c>
-      <c r="G6" s="26"/>
-      <c r="H6" s="27" t="s">
+      <c r="G6" s="59"/>
+      <c r="H6" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="28"/>
-      <c r="J6" s="29">
+      <c r="I6" s="61"/>
+      <c r="J6" s="5">
         <v>10</v>
       </c>
-      <c r="K6" s="30" t="s">
+      <c r="K6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="L6" s="31">
+      <c r="L6" s="7">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="32"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="26">
+      <c r="B7" s="68"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="59">
         <v>0.3</v>
       </c>
-      <c r="G7" s="26"/>
-      <c r="H7" s="27" t="s">
+      <c r="G7" s="59"/>
+      <c r="H7" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="28"/>
-      <c r="J7" s="29">
+      <c r="I7" s="61"/>
+      <c r="J7" s="5">
         <v>15</v>
       </c>
-      <c r="K7" s="30" t="s">
+      <c r="K7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="L7" s="31">
+      <c r="L7" s="7">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="34"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="37">
+      <c r="B8" s="70"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="72">
         <v>0.33</v>
       </c>
-      <c r="G8" s="38"/>
-      <c r="H8" s="27" t="s">
+      <c r="G8" s="73"/>
+      <c r="H8" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="28"/>
-      <c r="J8" s="29">
+      <c r="I8" s="61"/>
+      <c r="J8" s="5">
         <v>10</v>
       </c>
-      <c r="K8" s="30" t="s">
+      <c r="K8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="L8" s="31">
+      <c r="L8" s="7">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="11" t="s">
+      <c r="C9" s="42"/>
+      <c r="D9" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="12"/>
-      <c r="F9" s="13">
+      <c r="E9" s="42"/>
+      <c r="F9" s="39">
         <v>0.3</v>
       </c>
-      <c r="G9" s="14"/>
-      <c r="H9" s="15" t="s">
+      <c r="G9" s="40"/>
+      <c r="H9" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="16"/>
-      <c r="J9" s="17">
+      <c r="I9" s="28"/>
+      <c r="J9" s="2">
         <v>20</v>
       </c>
-      <c r="K9" s="18">
+      <c r="K9" s="3">
         <v>0.2</v>
       </c>
-      <c r="L9" s="19">
+      <c r="L9" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="20"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="13">
+      <c r="B10" s="43"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="39">
         <v>0.31</v>
       </c>
-      <c r="G10" s="14"/>
-      <c r="H10" s="15" t="s">
+      <c r="G10" s="40"/>
+      <c r="H10" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="I10" s="16"/>
-      <c r="J10" s="17">
+      <c r="I10" s="28"/>
+      <c r="J10" s="2">
         <v>20</v>
       </c>
-      <c r="K10" s="18">
+      <c r="K10" s="3">
         <v>1</v>
       </c>
-      <c r="L10" s="19">
+      <c r="L10" s="4">
         <v>15</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="20"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="13">
+      <c r="B11" s="43"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="39">
         <v>0.28000000000000003</v>
       </c>
-      <c r="G11" s="14"/>
-      <c r="H11" s="15" t="s">
+      <c r="G11" s="40"/>
+      <c r="H11" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="I11" s="16"/>
-      <c r="J11" s="17">
+      <c r="I11" s="28"/>
+      <c r="J11" s="2">
         <v>10</v>
       </c>
-      <c r="K11" s="18">
+      <c r="K11" s="3">
         <v>0.1</v>
       </c>
-      <c r="L11" s="19">
+      <c r="L11" s="4">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="20"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="11" t="s">
+      <c r="B12" s="43"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="12"/>
-      <c r="F12" s="13">
+      <c r="E12" s="42"/>
+      <c r="F12" s="39">
         <v>0.24</v>
       </c>
-      <c r="G12" s="14"/>
-      <c r="H12" s="15" t="s">
+      <c r="G12" s="40"/>
+      <c r="H12" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="I12" s="16"/>
-      <c r="J12" s="17">
+      <c r="I12" s="28"/>
+      <c r="J12" s="2">
         <v>30</v>
       </c>
-      <c r="K12" s="18" t="s">
+      <c r="K12" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L12" s="19">
+      <c r="L12" s="4">
         <v>6</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="20"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="13">
+      <c r="B13" s="43"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="39">
         <v>0.32</v>
       </c>
-      <c r="G13" s="14"/>
-      <c r="H13" s="15" t="s">
+      <c r="G13" s="40"/>
+      <c r="H13" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="I13" s="16"/>
-      <c r="J13" s="17">
+      <c r="I13" s="28"/>
+      <c r="J13" s="2">
         <v>30</v>
       </c>
-      <c r="K13" s="18" t="s">
+      <c r="K13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L13" s="19">
+      <c r="L13" s="4">
         <v>6</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="22"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="13">
+      <c r="B14" s="45"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="39">
         <v>0.34</v>
       </c>
-      <c r="G14" s="14"/>
-      <c r="H14" s="15" t="s">
+      <c r="G14" s="40"/>
+      <c r="H14" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="I14" s="16"/>
-      <c r="J14" s="17">
+      <c r="I14" s="28"/>
+      <c r="J14" s="2">
         <v>30</v>
       </c>
-      <c r="K14" s="18" t="s">
+      <c r="K14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L14" s="19">
+      <c r="L14" s="4">
         <v>6</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="39" t="s">
+      <c r="B15" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="40"/>
-      <c r="D15" s="39" t="s">
+      <c r="C15" s="48"/>
+      <c r="D15" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="40"/>
-      <c r="F15" s="41">
+      <c r="E15" s="48"/>
+      <c r="F15" s="31">
         <v>0.34</v>
       </c>
-      <c r="G15" s="42"/>
-      <c r="H15" s="43" t="s">
+      <c r="G15" s="32"/>
+      <c r="H15" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="I15" s="44"/>
-      <c r="J15" s="45">
+      <c r="I15" s="25"/>
+      <c r="J15" s="9">
         <v>20</v>
       </c>
-      <c r="K15" s="46">
+      <c r="K15" s="10">
         <v>0.2</v>
       </c>
-      <c r="L15" s="47">
+      <c r="L15" s="11">
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B16" s="48"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="41">
+      <c r="B16" s="49"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="31">
         <v>0.27</v>
       </c>
-      <c r="G16" s="42"/>
-      <c r="H16" s="43" t="s">
+      <c r="G16" s="32"/>
+      <c r="H16" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="I16" s="44"/>
-      <c r="J16" s="45">
+      <c r="I16" s="25"/>
+      <c r="J16" s="9">
         <v>20</v>
       </c>
-      <c r="K16" s="46">
+      <c r="K16" s="10">
         <v>0.1</v>
       </c>
-      <c r="L16" s="47">
+      <c r="L16" s="11">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B17" s="48"/>
-      <c r="C17" s="49"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="41">
+      <c r="B17" s="49"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="31">
         <v>0.32400000000000001</v>
       </c>
-      <c r="G17" s="42"/>
-      <c r="H17" s="43" t="s">
+      <c r="G17" s="32"/>
+      <c r="H17" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="I17" s="44"/>
-      <c r="J17" s="45">
+      <c r="I17" s="25"/>
+      <c r="J17" s="9">
         <v>10</v>
       </c>
-      <c r="K17" s="46">
+      <c r="K17" s="10">
         <v>0.1</v>
       </c>
-      <c r="L17" s="47">
+      <c r="L17" s="11">
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B18" s="48"/>
-      <c r="C18" s="49"/>
-      <c r="D18" s="39" t="s">
+      <c r="B18" s="49"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="E18" s="40"/>
-      <c r="F18" s="41">
+      <c r="E18" s="48"/>
+      <c r="F18" s="31">
         <v>0.3</v>
       </c>
-      <c r="G18" s="42"/>
-      <c r="H18" s="43" t="s">
+      <c r="G18" s="32"/>
+      <c r="H18" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="I18" s="44"/>
-      <c r="J18" s="45">
+      <c r="I18" s="25"/>
+      <c r="J18" s="9">
         <v>30</v>
       </c>
-      <c r="K18" s="46" t="s">
+      <c r="K18" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="L18" s="47">
+      <c r="L18" s="11">
         <v>5</v>
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B19" s="48"/>
-      <c r="C19" s="49"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="41">
+      <c r="B19" s="49"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="31">
         <v>0.34</v>
       </c>
-      <c r="G19" s="42"/>
-      <c r="H19" s="43" t="s">
+      <c r="G19" s="32"/>
+      <c r="H19" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="I19" s="44"/>
-      <c r="J19" s="45">
+      <c r="I19" s="25"/>
+      <c r="J19" s="9">
         <v>30</v>
       </c>
-      <c r="K19" s="46" t="s">
+      <c r="K19" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="L19" s="47">
+      <c r="L19" s="11">
         <v>5</v>
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B20" s="50"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="50"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="41">
+      <c r="B20" s="51"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="31">
         <v>0.33</v>
       </c>
-      <c r="G20" s="42"/>
-      <c r="H20" s="43" t="s">
+      <c r="G20" s="32"/>
+      <c r="H20" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="I20" s="44"/>
-      <c r="J20" s="45">
+      <c r="I20" s="25"/>
+      <c r="J20" s="9">
         <v>30</v>
       </c>
-      <c r="K20" s="46" t="s">
+      <c r="K20" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="L20" s="47">
+      <c r="L20" s="11">
         <v>5</v>
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B21" s="52" t="s">
+      <c r="B21" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="53"/>
-      <c r="D21" s="52" t="s">
+      <c r="C21" s="54"/>
+      <c r="D21" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="53"/>
-      <c r="F21" s="54"/>
-      <c r="G21" s="55"/>
-      <c r="H21" s="56" t="s">
+      <c r="E21" s="54"/>
+      <c r="F21" s="29">
+        <v>0.22</v>
+      </c>
+      <c r="G21" s="30"/>
+      <c r="H21" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="I21" s="57"/>
-      <c r="J21" s="58"/>
-      <c r="K21" s="59"/>
-      <c r="L21" s="60"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="12">
+        <v>25</v>
+      </c>
+      <c r="K21" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="L21" s="14">
+        <v>2</v>
+      </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B22" s="61"/>
-      <c r="C22" s="62"/>
-      <c r="D22" s="61"/>
-      <c r="E22" s="62"/>
-      <c r="F22" s="54"/>
-      <c r="G22" s="55"/>
-      <c r="H22" s="56" t="s">
+      <c r="B22" s="55"/>
+      <c r="C22" s="56"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="56"/>
+      <c r="F22" s="29">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="G22" s="30"/>
+      <c r="H22" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="I22" s="57"/>
-      <c r="J22" s="58"/>
-      <c r="K22" s="59"/>
-      <c r="L22" s="60"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="12">
+        <v>20</v>
+      </c>
+      <c r="K22" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="L22" s="14">
+        <v>7</v>
+      </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B23" s="61"/>
-      <c r="C23" s="62"/>
-      <c r="D23" s="63"/>
-      <c r="E23" s="64"/>
-      <c r="F23" s="54"/>
-      <c r="G23" s="55"/>
-      <c r="H23" s="56" t="s">
+      <c r="B23" s="55"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="58"/>
+      <c r="F23" s="29">
+        <v>0.29599999999999999</v>
+      </c>
+      <c r="G23" s="30"/>
+      <c r="H23" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="I23" s="57"/>
-      <c r="J23" s="58"/>
-      <c r="K23" s="59"/>
-      <c r="L23" s="60"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="12">
+        <v>20</v>
+      </c>
+      <c r="K23" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="L23" s="14">
+        <v>3</v>
+      </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B24" s="61"/>
-      <c r="C24" s="62"/>
-      <c r="D24" s="52" t="s">
+      <c r="B24" s="55"/>
+      <c r="C24" s="56"/>
+      <c r="D24" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="E24" s="53"/>
-      <c r="F24" s="54"/>
-      <c r="G24" s="55"/>
-      <c r="H24" s="56" t="s">
+      <c r="E24" s="54"/>
+      <c r="F24" s="29">
+        <v>0.26</v>
+      </c>
+      <c r="G24" s="30"/>
+      <c r="H24" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="I24" s="57"/>
-      <c r="J24" s="58"/>
-      <c r="K24" s="59"/>
-      <c r="L24" s="60"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="12">
+        <v>30</v>
+      </c>
+      <c r="K24" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L24" s="14">
+        <v>7</v>
+      </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B25" s="61"/>
-      <c r="C25" s="62"/>
-      <c r="D25" s="61"/>
-      <c r="E25" s="62"/>
-      <c r="F25" s="54"/>
-      <c r="G25" s="55"/>
-      <c r="H25" s="56" t="s">
+      <c r="B25" s="55"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="29">
+        <v>0.3</v>
+      </c>
+      <c r="G25" s="30"/>
+      <c r="H25" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="I25" s="57"/>
-      <c r="J25" s="58"/>
-      <c r="K25" s="59"/>
-      <c r="L25" s="60"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="12">
+        <v>30</v>
+      </c>
+      <c r="K25" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L25" s="14">
+        <v>7</v>
+      </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B26" s="63"/>
-      <c r="C26" s="64"/>
-      <c r="D26" s="63"/>
-      <c r="E26" s="64"/>
-      <c r="F26" s="54"/>
-      <c r="G26" s="55"/>
-      <c r="H26" s="56" t="s">
+      <c r="B26" s="57"/>
+      <c r="C26" s="58"/>
+      <c r="D26" s="57"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="29">
+        <v>0.3</v>
+      </c>
+      <c r="G26" s="30"/>
+      <c r="H26" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="I26" s="57"/>
-      <c r="J26" s="58"/>
-      <c r="K26" s="59"/>
-      <c r="L26" s="60"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="12">
+        <v>20</v>
+      </c>
+      <c r="K26" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L26" s="14">
+        <v>7</v>
+      </c>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B27" s="65" t="s">
+      <c r="B27" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C27" s="66"/>
-      <c r="D27" s="65" t="s">
+      <c r="C27" s="34"/>
+      <c r="D27" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="E27" s="66"/>
-      <c r="F27" s="67"/>
-      <c r="G27" s="68"/>
-      <c r="H27" s="69" t="s">
+      <c r="E27" s="34"/>
+      <c r="F27" s="20">
+        <v>0.21</v>
+      </c>
+      <c r="G27" s="26"/>
+      <c r="H27" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="I27" s="70"/>
-      <c r="J27" s="71"/>
-      <c r="K27" s="72"/>
-      <c r="L27" s="73"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="15">
+        <v>20</v>
+      </c>
+      <c r="K27" s="16">
+        <v>0.3</v>
+      </c>
+      <c r="L27" s="17">
+        <v>4</v>
+      </c>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B28" s="74"/>
-      <c r="C28" s="75"/>
-      <c r="D28" s="74"/>
-      <c r="E28" s="75"/>
-      <c r="F28" s="67"/>
-      <c r="G28" s="68"/>
-      <c r="H28" s="69" t="s">
+      <c r="B28" s="35"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="20">
+        <v>0.25</v>
+      </c>
+      <c r="G28" s="26"/>
+      <c r="H28" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="I28" s="70"/>
-      <c r="J28" s="71"/>
-      <c r="K28" s="72"/>
-      <c r="L28" s="73"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="15">
+        <v>20</v>
+      </c>
+      <c r="K28" s="16">
+        <v>0.1</v>
+      </c>
+      <c r="L28" s="17">
+        <v>5</v>
+      </c>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B29" s="74"/>
-      <c r="C29" s="75"/>
-      <c r="D29" s="76"/>
-      <c r="E29" s="77"/>
-      <c r="F29" s="67"/>
-      <c r="G29" s="68"/>
-      <c r="H29" s="69" t="s">
+      <c r="B29" s="35"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="20">
+        <v>0.31</v>
+      </c>
+      <c r="G29" s="26"/>
+      <c r="H29" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="I29" s="70"/>
-      <c r="J29" s="71"/>
-      <c r="K29" s="72"/>
-      <c r="L29" s="73"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="15">
+        <v>20</v>
+      </c>
+      <c r="K29" s="16">
+        <v>0.1</v>
+      </c>
+      <c r="L29" s="17">
+        <v>3</v>
+      </c>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B30" s="74"/>
-      <c r="C30" s="75"/>
-      <c r="D30" s="65" t="s">
+      <c r="B30" s="35"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="E30" s="66"/>
-      <c r="F30" s="67"/>
-      <c r="G30" s="68"/>
-      <c r="H30" s="69" t="s">
+      <c r="E30" s="34"/>
+      <c r="F30" s="20">
+        <v>0.24</v>
+      </c>
+      <c r="G30" s="26"/>
+      <c r="H30" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="I30" s="70"/>
-      <c r="J30" s="71"/>
-      <c r="K30" s="72"/>
-      <c r="L30" s="73"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="15">
+        <v>40</v>
+      </c>
+      <c r="K30" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="L30" s="17">
+        <v>8</v>
+      </c>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B31" s="74"/>
-      <c r="C31" s="75"/>
-      <c r="D31" s="74"/>
-      <c r="E31" s="75"/>
-      <c r="F31" s="67"/>
-      <c r="G31" s="68"/>
-      <c r="H31" s="69" t="s">
+      <c r="B31" s="35"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="35"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="20">
+        <v>0.31</v>
+      </c>
+      <c r="G31" s="26"/>
+      <c r="H31" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="I31" s="70"/>
-      <c r="J31" s="71"/>
-      <c r="K31" s="72"/>
-      <c r="L31" s="73"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="15">
+        <v>20</v>
+      </c>
+      <c r="K31" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="L31" s="17">
+        <v>15</v>
+      </c>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B32" s="76"/>
-      <c r="C32" s="77"/>
-      <c r="D32" s="76"/>
-      <c r="E32" s="77"/>
-      <c r="F32" s="67"/>
-      <c r="G32" s="68"/>
-      <c r="H32" s="67" t="s">
+      <c r="B32" s="37"/>
+      <c r="C32" s="38"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="20">
+        <v>0.32</v>
+      </c>
+      <c r="G32" s="26"/>
+      <c r="H32" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="I32" s="78"/>
-      <c r="J32" s="71"/>
-      <c r="K32" s="72"/>
-      <c r="L32" s="73"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="15">
+        <v>20</v>
+      </c>
+      <c r="K32" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="L32" s="17">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="80">
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="F27:G27"/>
     <mergeCell ref="H27:I27"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="D3:E5"/>
+    <mergeCell ref="D6:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B3:C8"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="B9:C14"/>
+    <mergeCell ref="B15:C20"/>
+    <mergeCell ref="B21:C26"/>
+    <mergeCell ref="B27:C32"/>
+    <mergeCell ref="D9:E11"/>
+    <mergeCell ref="D12:E14"/>
+    <mergeCell ref="D15:E17"/>
+    <mergeCell ref="D18:E20"/>
+    <mergeCell ref="D21:E23"/>
+    <mergeCell ref="D24:E26"/>
     <mergeCell ref="D27:E29"/>
     <mergeCell ref="D30:E32"/>
     <mergeCell ref="F9:G9"/>
@@ -1552,36 +1640,44 @@
     <mergeCell ref="F14:G14"/>
     <mergeCell ref="F15:G15"/>
     <mergeCell ref="F16:G16"/>
-    <mergeCell ref="B9:C14"/>
-    <mergeCell ref="B15:C20"/>
-    <mergeCell ref="B21:C26"/>
-    <mergeCell ref="B27:C32"/>
-    <mergeCell ref="D9:E11"/>
-    <mergeCell ref="D12:E14"/>
-    <mergeCell ref="D15:E17"/>
-    <mergeCell ref="D18:E20"/>
-    <mergeCell ref="D21:E23"/>
-    <mergeCell ref="D24:E26"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="D3:E5"/>
-    <mergeCell ref="D6:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="B3:C8"/>
-    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="H31:I31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
